--- a/src/main/resources/template/excel/export/periodSaleContrast.xlsx
+++ b/src/main/resources/template/excel/export/periodSaleContrast.xlsx
@@ -168,10 +168,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.thisSever}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>${obj.thisEight}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -212,10 +208,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.lastSever}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>${obj.lastEight}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -241,6 +233,14 @@
   </si>
   <si>
     <t>${obj.lastOne}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.thisSeven}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.lastSeven}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -843,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="4" spans="1:27" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
@@ -1029,58 +1029,58 @@
         <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="R4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">

--- a/src/main/resources/template/excel/export/periodSaleContrast.xlsx
+++ b/src/main/resources/template/excel/export/periodSaleContrast.xlsx
@@ -24,7 +24,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>zhangq</author>
-    <author>lijy02</author>
+    <author>ysc</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -36,20 +36,42 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="AA4")</t>
+          <t>jx:area(lastCell="AA4" firstCell="B4")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="1" shapeId="0">
+    <comment ref="B4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="reportList" var="obj" lastCell="AA4"</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="AA4")</t>
+          <t xml:space="preserve"> firstCell="B4"</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>)</t>
         </r>
       </text>
     </comment>
@@ -58,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>时段销售对比分析</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -228,10 +250,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.bizType}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>${obj.lastOne}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -241,6 +259,18 @@
   </si>
   <si>
     <t>${obj.lastSeven}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客单数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客单价</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +278,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +330,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -473,7 +518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -486,24 +531,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -535,6 +571,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -841,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:DY12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -855,154 +894,154 @@
     <col min="4" max="27" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:129" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
     </row>
-    <row r="2" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:129" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="12" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="14"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="11"/>
     </row>
-    <row r="3" spans="1:27" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="9" t="s">
+    <row r="3" spans="1:129" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="Z3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AA3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>42</v>
+    <row r="4" spans="1:129" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
@@ -1029,7 +1068,7 @@
         <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>27</v>
@@ -1047,7 +1086,7 @@
         <v>31</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>32</v>
@@ -1065,7 +1104,7 @@
         <v>36</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>37</v>
@@ -1082,38 +1121,355 @@
       <c r="AA4" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="4"/>
+      <c r="BU4" s="4"/>
+      <c r="BV4" s="4"/>
+      <c r="BW4" s="4"/>
+      <c r="BX4" s="4"/>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="4"/>
+      <c r="CA4" s="4"/>
+      <c r="CB4" s="4"/>
+      <c r="CC4" s="4"/>
+      <c r="CD4" s="4"/>
+      <c r="CE4" s="4"/>
+      <c r="CF4" s="4"/>
+      <c r="CG4" s="4"/>
+      <c r="CH4" s="4"/>
+      <c r="CI4" s="4"/>
+      <c r="CJ4" s="4"/>
+      <c r="CK4" s="4"/>
+      <c r="CL4" s="4"/>
+      <c r="CM4" s="4"/>
+      <c r="CN4" s="4"/>
+      <c r="CO4" s="4"/>
+      <c r="CP4" s="4"/>
+      <c r="CQ4" s="4"/>
+      <c r="CR4" s="4"/>
+      <c r="CS4" s="4"/>
+      <c r="CT4" s="4"/>
+      <c r="CU4" s="4"/>
+      <c r="CV4" s="4"/>
+      <c r="CW4" s="4"/>
+      <c r="CX4" s="4"/>
+      <c r="CY4" s="4"/>
+      <c r="CZ4" s="4"/>
+      <c r="DA4" s="4"/>
+      <c r="DB4" s="4"/>
+      <c r="DC4" s="4"/>
+      <c r="DD4" s="4"/>
+      <c r="DE4" s="4"/>
+      <c r="DF4" s="4"/>
+      <c r="DG4" s="4"/>
+      <c r="DH4" s="4"/>
+      <c r="DI4" s="4"/>
+      <c r="DJ4" s="4"/>
+      <c r="DK4" s="4"/>
+      <c r="DL4" s="4"/>
+      <c r="DM4" s="4"/>
+      <c r="DN4" s="4"/>
+      <c r="DO4" s="4"/>
+      <c r="DP4" s="4"/>
+      <c r="DQ4" s="4"/>
+      <c r="DR4" s="4"/>
+      <c r="DS4" s="4"/>
+      <c r="DT4" s="4"/>
+      <c r="DU4" s="4"/>
+      <c r="DV4" s="4"/>
+      <c r="DW4" s="4"/>
+      <c r="DX4" s="4"/>
+      <c r="DY4" s="4"/>
     </row>
-    <row r="5" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:129" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="18"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:129" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="18"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
     </row>
-    <row r="7" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:129" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
     </row>
-    <row r="8" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
+    <row r="8" spans="1:129" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
     </row>
-    <row r="9" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
+    <row r="9" spans="1:129" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:129" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
     </row>
-    <row r="11" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:129" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
     </row>
-    <row r="12" spans="1:27" s="5" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:129" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:AA1"/>
     <mergeCell ref="D2:O2"/>
     <mergeCell ref="P2:AA2"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/periodSaleContrast.xlsx
+++ b/src/main/resources/template/excel/export/periodSaleContrast.xlsx
@@ -162,10 +162,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.monthAvgSale}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>${obj.thisOne}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -271,6 +267,10 @@
   </si>
   <si>
     <t>客单价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.avgSale}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DY12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1041,85 +1041,85 @@
     </row>
     <row r="4" spans="1:129" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="7" spans="1:129" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="10" spans="1:129" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
